--- a/data/pca/factorExposure/factorExposure_2012-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-01.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01722420278850181</v>
+        <v>-0.0167684545345547</v>
       </c>
       <c r="C2">
-        <v>-0.03471449207309497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02745234509872933</v>
+      </c>
+      <c r="D2">
+        <v>0.0006736205442090126</v>
+      </c>
+      <c r="E2">
+        <v>0.01129639473440549</v>
+      </c>
+      <c r="F2">
+        <v>-0.009444472726520327</v>
+      </c>
+      <c r="G2">
+        <v>-0.002882818374794277</v>
+      </c>
+      <c r="H2">
+        <v>0.04408233393139874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07585824746204349</v>
+        <v>-0.08414088144359161</v>
       </c>
       <c r="C4">
-        <v>-0.0566125412121737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03688265544436443</v>
+      </c>
+      <c r="D4">
+        <v>0.0696361676413912</v>
+      </c>
+      <c r="E4">
+        <v>0.003052713590062774</v>
+      </c>
+      <c r="F4">
+        <v>-0.02985522216376632</v>
+      </c>
+      <c r="G4">
+        <v>-0.003561984504552403</v>
+      </c>
+      <c r="H4">
+        <v>-0.03978303262796152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.106426658113907</v>
+        <v>-0.1198289038226038</v>
       </c>
       <c r="C6">
-        <v>-0.05612422604286991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03471100372713949</v>
+      </c>
+      <c r="D6">
+        <v>0.009476593808143715</v>
+      </c>
+      <c r="E6">
+        <v>0.001684179394165391</v>
+      </c>
+      <c r="F6">
+        <v>-0.06140921690761731</v>
+      </c>
+      <c r="G6">
+        <v>-0.01873917985818483</v>
+      </c>
+      <c r="H6">
+        <v>0.0675597419136186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0500009726083047</v>
+        <v>-0.06103557027945916</v>
       </c>
       <c r="C7">
-        <v>-0.02807836476314992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01872297848453916</v>
+      </c>
+      <c r="D7">
+        <v>0.04268698886194452</v>
+      </c>
+      <c r="E7">
+        <v>0.02633691168475325</v>
+      </c>
+      <c r="F7">
+        <v>-0.03591414289359944</v>
+      </c>
+      <c r="G7">
+        <v>0.03485488591728141</v>
+      </c>
+      <c r="H7">
+        <v>-0.0211376049888272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03652950315528336</v>
+        <v>-0.03862055897175464</v>
       </c>
       <c r="C8">
-        <v>-0.01171394271666546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.00375422148084346</v>
+      </c>
+      <c r="D8">
+        <v>0.03349805598467852</v>
+      </c>
+      <c r="E8">
+        <v>0.01954601192318856</v>
+      </c>
+      <c r="F8">
+        <v>-0.03847410411577517</v>
+      </c>
+      <c r="G8">
+        <v>-0.03274190319842788</v>
+      </c>
+      <c r="H8">
+        <v>0.009510733655209359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06823364458116823</v>
+        <v>-0.07595017406580026</v>
       </c>
       <c r="C9">
-        <v>-0.04655580719972359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02801304455542775</v>
+      </c>
+      <c r="D9">
+        <v>0.06471712523253664</v>
+      </c>
+      <c r="E9">
+        <v>0.02324330061555243</v>
+      </c>
+      <c r="F9">
+        <v>-0.03601268170676736</v>
+      </c>
+      <c r="G9">
+        <v>-0.007206723377190312</v>
+      </c>
+      <c r="H9">
+        <v>-0.05408348338405746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02970243408076259</v>
+        <v>-0.03656894288558485</v>
       </c>
       <c r="C10">
-        <v>-0.03544220276053926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04292896077047411</v>
+      </c>
+      <c r="D10">
+        <v>-0.1709504925991553</v>
+      </c>
+      <c r="E10">
+        <v>0.04820419998912959</v>
+      </c>
+      <c r="F10">
+        <v>-0.04156024334452051</v>
+      </c>
+      <c r="G10">
+        <v>0.03680574156409196</v>
+      </c>
+      <c r="H10">
+        <v>0.03701355560754185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07026170853583914</v>
+        <v>-0.07471408588430864</v>
       </c>
       <c r="C11">
-        <v>-0.0477305502887247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02721805876285322</v>
+      </c>
+      <c r="D11">
+        <v>0.06383291550224238</v>
+      </c>
+      <c r="E11">
+        <v>-0.01064045820827794</v>
+      </c>
+      <c r="F11">
+        <v>-0.02495336629925182</v>
+      </c>
+      <c r="G11">
+        <v>0.001821780378615609</v>
+      </c>
+      <c r="H11">
+        <v>-0.08807254686820852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05709090033215921</v>
+        <v>-0.06375529808619899</v>
       </c>
       <c r="C12">
-        <v>-0.05113020236378327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03493226797040781</v>
+      </c>
+      <c r="D12">
+        <v>0.04903398760443906</v>
+      </c>
+      <c r="E12">
+        <v>0.010510289646679</v>
+      </c>
+      <c r="F12">
+        <v>-0.01730296421268096</v>
+      </c>
+      <c r="G12">
+        <v>-0.003216406350450236</v>
+      </c>
+      <c r="H12">
+        <v>-0.05314079221627821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06205587529712761</v>
+        <v>-0.06446110655047213</v>
       </c>
       <c r="C13">
-        <v>-0.04405224863601966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02565386350634593</v>
+      </c>
+      <c r="D13">
+        <v>0.04052036408506553</v>
+      </c>
+      <c r="E13">
+        <v>0.003718177109511018</v>
+      </c>
+      <c r="F13">
+        <v>-8.933977815115841e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.0002380144677102176</v>
+      </c>
+      <c r="H13">
+        <v>-0.05310422091628784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03131650833614408</v>
+        <v>-0.03989107937624747</v>
       </c>
       <c r="C14">
-        <v>-0.03042627702790492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02611924971525514</v>
+      </c>
+      <c r="D14">
+        <v>0.006938983478861671</v>
+      </c>
+      <c r="E14">
+        <v>0.02465734225473769</v>
+      </c>
+      <c r="F14">
+        <v>-0.01346940900858046</v>
+      </c>
+      <c r="G14">
+        <v>-0.01701788511439121</v>
+      </c>
+      <c r="H14">
+        <v>-0.0584162621799175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03922958001744405</v>
+        <v>-0.03950425127522265</v>
       </c>
       <c r="C15">
-        <v>-0.01247040602915377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004022720318680956</v>
+      </c>
+      <c r="D15">
+        <v>0.005667773794878697</v>
+      </c>
+      <c r="E15">
+        <v>0.04315178671709476</v>
+      </c>
+      <c r="F15">
+        <v>0.004971399868079055</v>
+      </c>
+      <c r="G15">
+        <v>-0.02987204405051372</v>
+      </c>
+      <c r="H15">
+        <v>-0.04629751066841314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05955785155462536</v>
+        <v>-0.06676062843931727</v>
       </c>
       <c r="C16">
-        <v>-0.04237382841407293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02702075499672364</v>
+      </c>
+      <c r="D16">
+        <v>0.06293490977777499</v>
+      </c>
+      <c r="E16">
+        <v>0.002148240107579768</v>
+      </c>
+      <c r="F16">
+        <v>-0.02312459837039195</v>
+      </c>
+      <c r="G16">
+        <v>0.0001601532050454805</v>
+      </c>
+      <c r="H16">
+        <v>-0.05416116713786739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0647833540839499</v>
+        <v>-0.06386588593225032</v>
       </c>
       <c r="C20">
-        <v>-0.03299571562635121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01321055728472105</v>
+      </c>
+      <c r="D20">
+        <v>0.04898912669625054</v>
+      </c>
+      <c r="E20">
+        <v>0.01883704753471213</v>
+      </c>
+      <c r="F20">
+        <v>-0.02193596733455683</v>
+      </c>
+      <c r="G20">
+        <v>-0.004909069071479108</v>
+      </c>
+      <c r="H20">
+        <v>-0.05456772345503026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02385262320294307</v>
+        <v>-0.0229763053731656</v>
       </c>
       <c r="C21">
-        <v>0.003572407063733242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01153796586922913</v>
+      </c>
+      <c r="D21">
+        <v>0.03465371249655148</v>
+      </c>
+      <c r="E21">
+        <v>0.07577824606800765</v>
+      </c>
+      <c r="F21">
+        <v>0.02375674835554123</v>
+      </c>
+      <c r="G21">
+        <v>-0.01387369032385862</v>
+      </c>
+      <c r="H21">
+        <v>0.03543249145685152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07417531127727657</v>
+        <v>-0.06583674847647274</v>
       </c>
       <c r="C22">
-        <v>-0.06306759753103233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03422043559967784</v>
+      </c>
+      <c r="D22">
+        <v>0.1026218340129099</v>
+      </c>
+      <c r="E22">
+        <v>0.6007541872969533</v>
+      </c>
+      <c r="F22">
+        <v>0.1787515011751524</v>
+      </c>
+      <c r="G22">
+        <v>0.02881711906331994</v>
+      </c>
+      <c r="H22">
+        <v>0.1470645383423063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07515156230091066</v>
+        <v>-0.06638480458696075</v>
       </c>
       <c r="C23">
-        <v>-0.06202504074931949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03295552105702644</v>
+      </c>
+      <c r="D23">
+        <v>0.1033428814022885</v>
+      </c>
+      <c r="E23">
+        <v>0.5999216208124486</v>
+      </c>
+      <c r="F23">
+        <v>0.1778446699880722</v>
+      </c>
+      <c r="G23">
+        <v>0.02701742903771261</v>
+      </c>
+      <c r="H23">
+        <v>0.1423751191243685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06880054949077608</v>
+        <v>-0.07725624435577143</v>
       </c>
       <c r="C24">
-        <v>-0.0514089106705512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03310433732353582</v>
+      </c>
+      <c r="D24">
+        <v>0.06141273912361648</v>
+      </c>
+      <c r="E24">
+        <v>0.01078035545599362</v>
+      </c>
+      <c r="F24">
+        <v>-0.03279822818689763</v>
+      </c>
+      <c r="G24">
+        <v>-0.008526346053053637</v>
+      </c>
+      <c r="H24">
+        <v>-0.06345982546630738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0697475661859434</v>
+        <v>-0.07562610495307054</v>
       </c>
       <c r="C25">
-        <v>-0.05751382895716055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03788828934917011</v>
+      </c>
+      <c r="D25">
+        <v>0.05616645337843142</v>
+      </c>
+      <c r="E25">
+        <v>0.01246500724471167</v>
+      </c>
+      <c r="F25">
+        <v>-0.02683798307685875</v>
+      </c>
+      <c r="G25">
+        <v>-0.02012592224905954</v>
+      </c>
+      <c r="H25">
+        <v>-0.06550866474266777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04252244824774796</v>
+        <v>-0.04626259053506492</v>
       </c>
       <c r="C26">
-        <v>-0.009068876165809042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001007658336714125</v>
+      </c>
+      <c r="D26">
+        <v>0.02599073205460662</v>
+      </c>
+      <c r="E26">
+        <v>0.04228482971938671</v>
+      </c>
+      <c r="F26">
+        <v>-0.02004655193404493</v>
+      </c>
+      <c r="G26">
+        <v>-0.000826309673035101</v>
+      </c>
+      <c r="H26">
+        <v>-0.06146640609931551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05823951068285733</v>
+        <v>-0.0731578734546347</v>
       </c>
       <c r="C28">
-        <v>-0.079000660693477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08884739079403869</v>
+      </c>
+      <c r="D28">
+        <v>-0.3122794533743808</v>
+      </c>
+      <c r="E28">
+        <v>0.04221526562917528</v>
+      </c>
+      <c r="F28">
+        <v>-0.05490201053748713</v>
+      </c>
+      <c r="G28">
+        <v>-0.03057333385931463</v>
+      </c>
+      <c r="H28">
+        <v>0.01423708630137238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0404308697423718</v>
+        <v>-0.04687270010895368</v>
       </c>
       <c r="C29">
-        <v>-0.03076746989733365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02398046834915048</v>
+      </c>
+      <c r="D29">
+        <v>0.007265174632965241</v>
+      </c>
+      <c r="E29">
+        <v>0.04777765789249052</v>
+      </c>
+      <c r="F29">
+        <v>-0.001833377827390223</v>
+      </c>
+      <c r="G29">
+        <v>-0.001177834134852241</v>
+      </c>
+      <c r="H29">
+        <v>-0.0875495517007501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1233983185776774</v>
+        <v>-0.1315570023513181</v>
       </c>
       <c r="C30">
-        <v>-0.0930616460398356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0574746405421926</v>
+      </c>
+      <c r="D30">
+        <v>0.08767801754047166</v>
+      </c>
+      <c r="E30">
+        <v>0.03927830057510673</v>
+      </c>
+      <c r="F30">
+        <v>-0.002873154111591112</v>
+      </c>
+      <c r="G30">
+        <v>-0.04045119356446172</v>
+      </c>
+      <c r="H30">
+        <v>0.02952503542954717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04081326809294345</v>
+        <v>-0.04589954172360294</v>
       </c>
       <c r="C31">
-        <v>-0.01928555363562129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01039084639089923</v>
+      </c>
+      <c r="D31">
+        <v>0.02491737774602857</v>
+      </c>
+      <c r="E31">
+        <v>0.02532882331697237</v>
+      </c>
+      <c r="F31">
+        <v>-0.01136072712059502</v>
+      </c>
+      <c r="G31">
+        <v>0.01549934004681473</v>
+      </c>
+      <c r="H31">
+        <v>-0.07475923322558541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03584577186922032</v>
+        <v>-0.03676986320156546</v>
       </c>
       <c r="C32">
-        <v>-0.02515006882024916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01711638827811866</v>
+      </c>
+      <c r="D32">
+        <v>0.01601834963247617</v>
+      </c>
+      <c r="E32">
+        <v>0.06941763087802533</v>
+      </c>
+      <c r="F32">
+        <v>0.004310969423242163</v>
+      </c>
+      <c r="G32">
+        <v>-0.04290943929981327</v>
+      </c>
+      <c r="H32">
+        <v>-0.05125906313504486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07985620919168503</v>
+        <v>-0.09431189103642378</v>
       </c>
       <c r="C33">
-        <v>-0.0439089417882596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.0266175410281354</v>
+      </c>
+      <c r="D33">
+        <v>0.05689210646752169</v>
+      </c>
+      <c r="E33">
+        <v>0.01691314091909929</v>
+      </c>
+      <c r="F33">
+        <v>-0.00416209138347762</v>
+      </c>
+      <c r="G33">
+        <v>0.007665142592258099</v>
+      </c>
+      <c r="H33">
+        <v>-0.07313090658919856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05521139366177509</v>
+        <v>-0.0590133113884087</v>
       </c>
       <c r="C34">
-        <v>-0.02886265794444743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.0128908336129533</v>
+      </c>
+      <c r="D34">
+        <v>0.0558079892633721</v>
+      </c>
+      <c r="E34">
+        <v>0.003121089400737295</v>
+      </c>
+      <c r="F34">
+        <v>-0.01544515009789399</v>
+      </c>
+      <c r="G34">
+        <v>-0.007828771894091887</v>
+      </c>
+      <c r="H34">
+        <v>-0.05057063523005067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03705214532802043</v>
+        <v>-0.04114237506817764</v>
       </c>
       <c r="C35">
-        <v>-0.01036456881803624</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003259002327760226</v>
+      </c>
+      <c r="D35">
+        <v>0.00921441422010341</v>
+      </c>
+      <c r="E35">
+        <v>0.02249111198409159</v>
+      </c>
+      <c r="F35">
+        <v>0.008948680779558005</v>
+      </c>
+      <c r="G35">
+        <v>0.009897565668898926</v>
+      </c>
+      <c r="H35">
+        <v>-0.03575456827241705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0195979609944649</v>
+        <v>-0.02647849752968664</v>
       </c>
       <c r="C36">
-        <v>-0.01739985289365762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01337991672154715</v>
+      </c>
+      <c r="D36">
+        <v>0.01721203529197214</v>
+      </c>
+      <c r="E36">
+        <v>0.03983352607585425</v>
+      </c>
+      <c r="F36">
+        <v>-0.01593649153233095</v>
+      </c>
+      <c r="G36">
+        <v>0.007336028442066022</v>
+      </c>
+      <c r="H36">
+        <v>-0.05160444443235971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0390572441732189</v>
+        <v>-0.04326903411738876</v>
       </c>
       <c r="C38">
-        <v>-0.004770403070427438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001713114891530493</v>
+      </c>
+      <c r="D38">
+        <v>0.01830727975669977</v>
+      </c>
+      <c r="E38">
+        <v>0.06060460323047604</v>
+      </c>
+      <c r="F38">
+        <v>0.01420387011917702</v>
+      </c>
+      <c r="G38">
+        <v>-0.02020763957173517</v>
+      </c>
+      <c r="H38">
+        <v>-0.0205471391872379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09198805428790596</v>
+        <v>-0.1026548341873005</v>
       </c>
       <c r="C39">
-        <v>-0.07395900126449166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04875072797247289</v>
+      </c>
+      <c r="D39">
+        <v>0.07377723331638876</v>
+      </c>
+      <c r="E39">
+        <v>-0.01574696091561436</v>
+      </c>
+      <c r="F39">
+        <v>-0.01163325297822273</v>
+      </c>
+      <c r="G39">
+        <v>-0.02866812817055631</v>
+      </c>
+      <c r="H39">
+        <v>-0.05619125760765155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07312127371312541</v>
+        <v>-0.07125800393002941</v>
       </c>
       <c r="C40">
-        <v>-0.04481968621456803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.02300019371317519</v>
+      </c>
+      <c r="D40">
+        <v>0.005587910216843659</v>
+      </c>
+      <c r="E40">
+        <v>0.01503337781670941</v>
+      </c>
+      <c r="F40">
+        <v>0.05665102979457241</v>
+      </c>
+      <c r="G40">
+        <v>-0.05140459043065574</v>
+      </c>
+      <c r="H40">
+        <v>0.08588934370378438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04010542556757789</v>
+        <v>-0.04273730514252996</v>
       </c>
       <c r="C41">
-        <v>-0.006989065940661886</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0009552584665464444</v>
+      </c>
+      <c r="D41">
+        <v>0.03817688728811361</v>
+      </c>
+      <c r="E41">
+        <v>0.006217376530835853</v>
+      </c>
+      <c r="F41">
+        <v>0.01338005769101791</v>
+      </c>
+      <c r="G41">
+        <v>-0.01448896199872081</v>
+      </c>
+      <c r="H41">
+        <v>-0.03162387337296743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04578632116873405</v>
+        <v>-0.05463712479696355</v>
       </c>
       <c r="C43">
-        <v>-0.02626134004177965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01671366187761436</v>
+      </c>
+      <c r="D43">
+        <v>0.02674045569221761</v>
+      </c>
+      <c r="E43">
+        <v>0.015653083067451</v>
+      </c>
+      <c r="F43">
+        <v>-0.008851949889791348</v>
+      </c>
+      <c r="G43">
+        <v>0.004997315143299818</v>
+      </c>
+      <c r="H43">
+        <v>-0.04724471770165874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09379748543291878</v>
+        <v>-0.08949111417400285</v>
       </c>
       <c r="C44">
-        <v>-0.09817684528807305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06419628839704693</v>
+      </c>
+      <c r="D44">
+        <v>0.06808175126493041</v>
+      </c>
+      <c r="E44">
+        <v>0.0797468434743781</v>
+      </c>
+      <c r="F44">
+        <v>-0.04214961705784851</v>
+      </c>
+      <c r="G44">
+        <v>-0.03675374289234708</v>
+      </c>
+      <c r="H44">
+        <v>-0.007257055624818449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0243131879253194</v>
+        <v>-0.03120732741867041</v>
       </c>
       <c r="C46">
-        <v>-0.01328059901762677</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009144768892184511</v>
+      </c>
+      <c r="D46">
+        <v>0.03418625896516096</v>
+      </c>
+      <c r="E46">
+        <v>0.02188913089388287</v>
+      </c>
+      <c r="F46">
+        <v>-0.01646955111834055</v>
+      </c>
+      <c r="G46">
+        <v>-0.007205060407227949</v>
+      </c>
+      <c r="H46">
+        <v>-0.03689777021022807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02652618033377828</v>
+        <v>-0.03486968029311999</v>
       </c>
       <c r="C47">
-        <v>-0.02612889945284275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02011019236888246</v>
+      </c>
+      <c r="D47">
+        <v>0.01976011300828474</v>
+      </c>
+      <c r="E47">
+        <v>0.05049512950477279</v>
+      </c>
+      <c r="F47">
+        <v>-0.01219911904632823</v>
+      </c>
+      <c r="G47">
+        <v>0.03908420647688932</v>
+      </c>
+      <c r="H47">
+        <v>-0.02757591440290532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03118984921351257</v>
+        <v>-0.03695514779236538</v>
       </c>
       <c r="C48">
-        <v>-0.0177711147999455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009856873671442461</v>
+      </c>
+      <c r="D48">
+        <v>0.02676813748195832</v>
+      </c>
+      <c r="E48">
+        <v>0.04327041294296593</v>
+      </c>
+      <c r="F48">
+        <v>-0.003529681029149441</v>
+      </c>
+      <c r="G48">
+        <v>-0.01212261455150073</v>
+      </c>
+      <c r="H48">
+        <v>-0.05339729600371653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1630990502212964</v>
+        <v>-0.1913456093068881</v>
       </c>
       <c r="C49">
-        <v>-0.06925402897047782</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.04003743249199006</v>
+      </c>
+      <c r="D49">
+        <v>0.01983608811098962</v>
+      </c>
+      <c r="E49">
+        <v>-0.1272041949165645</v>
+      </c>
+      <c r="F49">
+        <v>-0.06152870853195336</v>
+      </c>
+      <c r="G49">
+        <v>0.07408241020434152</v>
+      </c>
+      <c r="H49">
+        <v>0.2278112327837596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03741351999493978</v>
+        <v>-0.04463981387610258</v>
       </c>
       <c r="C50">
-        <v>-0.0229244187399601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01580119374342262</v>
+      </c>
+      <c r="D50">
+        <v>0.03644095154319071</v>
+      </c>
+      <c r="E50">
+        <v>0.0512244471296804</v>
+      </c>
+      <c r="F50">
+        <v>-0.01674472959674796</v>
+      </c>
+      <c r="G50">
+        <v>0.01045825878681255</v>
+      </c>
+      <c r="H50">
+        <v>-0.07094575501061905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02566940105003293</v>
+        <v>-0.0269841166638645</v>
       </c>
       <c r="C51">
-        <v>-0.01068645973172649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.005857595463422988</v>
+      </c>
+      <c r="D51">
+        <v>0.02169548985111433</v>
+      </c>
+      <c r="E51">
+        <v>0.01624542963163347</v>
+      </c>
+      <c r="F51">
+        <v>-0.008202253635528813</v>
+      </c>
+      <c r="G51">
+        <v>-0.003015512681283759</v>
+      </c>
+      <c r="H51">
+        <v>0.003947743748335502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1477218314868702</v>
+        <v>-0.1611788769299199</v>
       </c>
       <c r="C53">
-        <v>-0.08000087815525447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05233141608595462</v>
+      </c>
+      <c r="D53">
+        <v>0.02132099611794033</v>
+      </c>
+      <c r="E53">
+        <v>-0.03285432863345557</v>
+      </c>
+      <c r="F53">
+        <v>-0.0153266947353859</v>
+      </c>
+      <c r="G53">
+        <v>-0.00652895045998407</v>
+      </c>
+      <c r="H53">
+        <v>-0.1563737144347558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0540256377725833</v>
+        <v>-0.05553287514866909</v>
       </c>
       <c r="C54">
-        <v>-0.02527066403164418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01226697454116644</v>
+      </c>
+      <c r="D54">
+        <v>0.02213442819918574</v>
+      </c>
+      <c r="E54">
+        <v>0.04872807266347745</v>
+      </c>
+      <c r="F54">
+        <v>-0.005977350384791758</v>
+      </c>
+      <c r="G54">
+        <v>-0.02019435632277969</v>
+      </c>
+      <c r="H54">
+        <v>-0.06113117144462218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09788322546029414</v>
+        <v>-0.1013328562302925</v>
       </c>
       <c r="C55">
-        <v>-0.05707237130573608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.0360442058669255</v>
+      </c>
+      <c r="D55">
+        <v>0.02768886964366543</v>
+      </c>
+      <c r="E55">
+        <v>0.01052591060027872</v>
+      </c>
+      <c r="F55">
+        <v>-0.0150656926134794</v>
+      </c>
+      <c r="G55">
+        <v>-0.01748465635084263</v>
+      </c>
+      <c r="H55">
+        <v>-0.1468601461282372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1459662672479961</v>
+        <v>-0.1606216400292785</v>
       </c>
       <c r="C56">
-        <v>-0.09456624426239663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06480618787366398</v>
+      </c>
+      <c r="D56">
+        <v>0.02088691286786808</v>
+      </c>
+      <c r="E56">
+        <v>-0.03199193641110604</v>
+      </c>
+      <c r="F56">
+        <v>-0.03323989323068115</v>
+      </c>
+      <c r="G56">
+        <v>0.001492745716078848</v>
+      </c>
+      <c r="H56">
+        <v>-0.1644660418925055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1190695268702913</v>
+        <v>-0.09626042809813318</v>
       </c>
       <c r="C58">
-        <v>-0.005938977671173921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.035149332969759</v>
+      </c>
+      <c r="D58">
+        <v>0.05127811070147806</v>
+      </c>
+      <c r="E58">
+        <v>0.1688824551997364</v>
+      </c>
+      <c r="F58">
+        <v>-0.005055868218561751</v>
+      </c>
+      <c r="G58">
+        <v>0.06302412653100252</v>
+      </c>
+      <c r="H58">
+        <v>0.1621657473222406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1174582841814504</v>
+        <v>-0.1433013364430747</v>
       </c>
       <c r="C59">
-        <v>-0.08045558692150456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0889875139688769</v>
+      </c>
+      <c r="D59">
+        <v>-0.3597744539911764</v>
+      </c>
+      <c r="E59">
+        <v>0.05077690084941081</v>
+      </c>
+      <c r="F59">
+        <v>-0.003945292208412141</v>
+      </c>
+      <c r="G59">
+        <v>0.03631838623114202</v>
+      </c>
+      <c r="H59">
+        <v>-0.001218284327474088</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1991735732089173</v>
+        <v>-0.2281218245903341</v>
       </c>
       <c r="C60">
-        <v>-0.1051078501059298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06922242856971991</v>
+      </c>
+      <c r="D60">
+        <v>0.0274970146937602</v>
+      </c>
+      <c r="E60">
+        <v>-0.06820582803217164</v>
+      </c>
+      <c r="F60">
+        <v>-0.05720690494913337</v>
+      </c>
+      <c r="G60">
+        <v>-0.0127387653213074</v>
+      </c>
+      <c r="H60">
+        <v>0.1587285104406835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07812969754043041</v>
+        <v>-0.08661882093149868</v>
       </c>
       <c r="C61">
-        <v>-0.05093152486211988</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03300429935387054</v>
+      </c>
+      <c r="D61">
+        <v>0.05210637393457969</v>
+      </c>
+      <c r="E61">
+        <v>-0.01373933098982582</v>
+      </c>
+      <c r="F61">
+        <v>-0.008738381393482358</v>
+      </c>
+      <c r="G61">
+        <v>0.002257608357886631</v>
+      </c>
+      <c r="H61">
+        <v>-0.06882116060198834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1256727053945081</v>
+        <v>-0.1389993106419468</v>
       </c>
       <c r="C62">
-        <v>-0.0693303489271838</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04470338002513449</v>
+      </c>
+      <c r="D62">
+        <v>0.02719523113418142</v>
+      </c>
+      <c r="E62">
+        <v>-0.05528962175520894</v>
+      </c>
+      <c r="F62">
+        <v>-0.01132271386045916</v>
+      </c>
+      <c r="G62">
+        <v>-0.04053006958680358</v>
+      </c>
+      <c r="H62">
+        <v>-0.1589179201876892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05333811883890805</v>
+        <v>-0.05184675396656575</v>
       </c>
       <c r="C63">
-        <v>-0.02809718045074353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.0140326228033016</v>
+      </c>
+      <c r="D63">
+        <v>0.0258403395781408</v>
+      </c>
+      <c r="E63">
+        <v>0.05186430988054302</v>
+      </c>
+      <c r="F63">
+        <v>0.003713043800598401</v>
+      </c>
+      <c r="G63">
+        <v>-0.04071335718678807</v>
+      </c>
+      <c r="H63">
+        <v>-0.07273491844496459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.110118235605079</v>
+        <v>-0.1123593086496543</v>
       </c>
       <c r="C64">
-        <v>-0.0276826700173571</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.003394441293045461</v>
+      </c>
+      <c r="D64">
+        <v>0.04337390481761676</v>
+      </c>
+      <c r="E64">
+        <v>0.03192369621035778</v>
+      </c>
+      <c r="F64">
+        <v>-0.04650489488147593</v>
+      </c>
+      <c r="G64">
+        <v>-0.03840404712626677</v>
+      </c>
+      <c r="H64">
+        <v>-0.07355518257453689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1203182259188117</v>
+        <v>-0.1275062007795888</v>
       </c>
       <c r="C65">
-        <v>-0.05934849510246808</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03575571617705114</v>
+      </c>
+      <c r="D65">
+        <v>0.003514015434073151</v>
+      </c>
+      <c r="E65">
+        <v>0.005153283740088773</v>
+      </c>
+      <c r="F65">
+        <v>-0.0671811017638342</v>
+      </c>
+      <c r="G65">
+        <v>-0.04158372404003097</v>
+      </c>
+      <c r="H65">
+        <v>0.07449097761048545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411205894623614</v>
+        <v>-0.1551414050202037</v>
       </c>
       <c r="C66">
-        <v>-0.08061476249532799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04643720716675107</v>
+      </c>
+      <c r="D66">
+        <v>0.1120260162516325</v>
+      </c>
+      <c r="E66">
+        <v>-0.05207200722058976</v>
+      </c>
+      <c r="F66">
+        <v>-0.0256613651197997</v>
+      </c>
+      <c r="G66">
+        <v>-0.03694121195638051</v>
+      </c>
+      <c r="H66">
+        <v>-0.125769872985152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07158914091712755</v>
+        <v>-0.08121656142275717</v>
       </c>
       <c r="C67">
-        <v>-0.01697519177676933</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.005564852258807776</v>
+      </c>
+      <c r="D67">
+        <v>0.02944709235988676</v>
+      </c>
+      <c r="E67">
+        <v>0.03173691497581875</v>
+      </c>
+      <c r="F67">
+        <v>-0.009595059466588875</v>
+      </c>
+      <c r="G67">
+        <v>0.00149875798892914</v>
+      </c>
+      <c r="H67">
+        <v>-0.01841898202537019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05899258449687005</v>
+        <v>-0.06419642863054827</v>
       </c>
       <c r="C68">
-        <v>-0.05030123238422793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05682004868998437</v>
+      </c>
+      <c r="D68">
+        <v>-0.2633809078963544</v>
+      </c>
+      <c r="E68">
+        <v>0.05231316368427057</v>
+      </c>
+      <c r="F68">
+        <v>-0.009022569083020172</v>
+      </c>
+      <c r="G68">
+        <v>0.01346582026315126</v>
+      </c>
+      <c r="H68">
+        <v>-0.01958403375636424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05163524096874914</v>
+        <v>-0.05148127346419643</v>
       </c>
       <c r="C69">
-        <v>-0.02107429860552764</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.006247369860610199</v>
+      </c>
+      <c r="D69">
+        <v>0.02025864117077699</v>
+      </c>
+      <c r="E69">
+        <v>0.02469327584915978</v>
+      </c>
+      <c r="F69">
+        <v>0.005388841063807236</v>
+      </c>
+      <c r="G69">
+        <v>0.008872499198001104</v>
+      </c>
+      <c r="H69">
+        <v>-0.05675732947080537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004705003023690964</v>
+        <v>-0.02532636864176863</v>
       </c>
       <c r="C70">
-        <v>0.00475156234943103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-5.292303121023121e-05</v>
+      </c>
+      <c r="D70">
+        <v>-0.001017545989816475</v>
+      </c>
+      <c r="E70">
+        <v>-0.02357518345585868</v>
+      </c>
+      <c r="F70">
+        <v>-0.02260983271511043</v>
+      </c>
+      <c r="G70">
+        <v>0.02515298716809297</v>
+      </c>
+      <c r="H70">
+        <v>0.06004721374456608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05995213437252038</v>
+        <v>-0.06755422237179178</v>
       </c>
       <c r="C71">
-        <v>-0.04920329773289572</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05858748742029925</v>
+      </c>
+      <c r="D71">
+        <v>-0.291707469244778</v>
+      </c>
+      <c r="E71">
+        <v>0.04789990315066706</v>
+      </c>
+      <c r="F71">
+        <v>-0.04054108366088289</v>
+      </c>
+      <c r="G71">
+        <v>0.003792570122861819</v>
+      </c>
+      <c r="H71">
+        <v>-0.01599923823082612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1403730426977705</v>
+        <v>-0.1534940517375354</v>
       </c>
       <c r="C72">
-        <v>-0.06590883970623651</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03872802277112621</v>
+      </c>
+      <c r="D72">
+        <v>-0.005349473304679552</v>
+      </c>
+      <c r="E72">
+        <v>-0.1092256556543514</v>
+      </c>
+      <c r="F72">
+        <v>0.1602215703594369</v>
+      </c>
+      <c r="G72">
+        <v>-0.1120143410855212</v>
+      </c>
+      <c r="H72">
+        <v>-0.01549382002478362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2631083913891221</v>
+        <v>-0.2847200660615755</v>
       </c>
       <c r="C73">
-        <v>-0.1191396049592597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05845149301407099</v>
+      </c>
+      <c r="D73">
+        <v>0.09294392640325702</v>
+      </c>
+      <c r="E73">
+        <v>-0.1949202239196081</v>
+      </c>
+      <c r="F73">
+        <v>-0.1096477361902624</v>
+      </c>
+      <c r="G73">
+        <v>0.2224001644098194</v>
+      </c>
+      <c r="H73">
+        <v>0.5225614927602144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07832051032875337</v>
+        <v>-0.09027212084247134</v>
       </c>
       <c r="C74">
-        <v>-0.079538623968402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06012795111004633</v>
+      </c>
+      <c r="D74">
+        <v>0.03049329419865031</v>
+      </c>
+      <c r="E74">
+        <v>-0.007174176562103089</v>
+      </c>
+      <c r="F74">
+        <v>0.01327417568035738</v>
+      </c>
+      <c r="G74">
+        <v>0.02718531706533082</v>
+      </c>
+      <c r="H74">
+        <v>-0.1288110778933506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09479150909560062</v>
+        <v>-0.1018996798002689</v>
       </c>
       <c r="C75">
-        <v>-0.0523116380182732</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02722142034984138</v>
+      </c>
+      <c r="D75">
+        <v>0.01373874649914123</v>
+      </c>
+      <c r="E75">
+        <v>0.00827851447996965</v>
+      </c>
+      <c r="F75">
+        <v>-0.04053764223527966</v>
+      </c>
+      <c r="G75">
+        <v>0.009214220249613533</v>
+      </c>
+      <c r="H75">
+        <v>-0.1227804096434433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1260567347578192</v>
+        <v>-0.1362971332679755</v>
       </c>
       <c r="C76">
-        <v>-0.08543593143544918</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05550922843777244</v>
+      </c>
+      <c r="D76">
+        <v>0.05662989595946941</v>
+      </c>
+      <c r="E76">
+        <v>0.02350352217129795</v>
+      </c>
+      <c r="F76">
+        <v>-0.04760342088589843</v>
+      </c>
+      <c r="G76">
+        <v>-0.006060613535968841</v>
+      </c>
+      <c r="H76">
+        <v>-0.160902597117253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1223086683195941</v>
+        <v>-0.113959245211234</v>
       </c>
       <c r="C77">
-        <v>-0.03709083969282596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.002731836609516433</v>
+      </c>
+      <c r="D77">
+        <v>0.0253323542816845</v>
+      </c>
+      <c r="E77">
+        <v>-0.01563537805908102</v>
+      </c>
+      <c r="F77">
+        <v>-0.1896673083054593</v>
+      </c>
+      <c r="G77">
+        <v>-0.874719577467994</v>
+      </c>
+      <c r="H77">
+        <v>0.2293537690298321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09254180024831392</v>
+        <v>-0.1255362281991502</v>
       </c>
       <c r="C78">
-        <v>-0.04338503590203189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03186658581499976</v>
+      </c>
+      <c r="D78">
+        <v>0.09293509989077317</v>
+      </c>
+      <c r="E78">
+        <v>0.06064093397480624</v>
+      </c>
+      <c r="F78">
+        <v>-0.01729183351906372</v>
+      </c>
+      <c r="G78">
+        <v>-0.03796264710531478</v>
+      </c>
+      <c r="H78">
+        <v>0.09517649615673628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1444432587047728</v>
+        <v>-0.1511698383922492</v>
       </c>
       <c r="C79">
-        <v>-0.08724952364877005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04987375073538618</v>
+      </c>
+      <c r="D79">
+        <v>0.03118845508276344</v>
+      </c>
+      <c r="E79">
+        <v>-0.01888142325290486</v>
+      </c>
+      <c r="F79">
+        <v>-0.0117834824935043</v>
+      </c>
+      <c r="G79">
+        <v>0.01203164916044186</v>
+      </c>
+      <c r="H79">
+        <v>-0.1634442189629537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04214589863222179</v>
+        <v>-0.04283879734346193</v>
       </c>
       <c r="C80">
-        <v>-0.01594187189010775</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005896513962051069</v>
+      </c>
+      <c r="D80">
+        <v>0.02617761357281667</v>
+      </c>
+      <c r="E80">
+        <v>-0.006691677320192321</v>
+      </c>
+      <c r="F80">
+        <v>0.01276491656062128</v>
+      </c>
+      <c r="G80">
+        <v>0.03849065123450238</v>
+      </c>
+      <c r="H80">
+        <v>-0.03540053883621421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1182613540141505</v>
+        <v>-0.1212770213090201</v>
       </c>
       <c r="C81">
-        <v>-0.06608126937424767</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03466456798237556</v>
+      </c>
+      <c r="D81">
+        <v>0.02741987226482188</v>
+      </c>
+      <c r="E81">
+        <v>0.008455314135984474</v>
+      </c>
+      <c r="F81">
+        <v>-0.0200744737939808</v>
+      </c>
+      <c r="G81">
+        <v>0.04104281375741231</v>
+      </c>
+      <c r="H81">
+        <v>-0.1819245276651514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1263421443034714</v>
+        <v>-0.1298468088719327</v>
       </c>
       <c r="C82">
-        <v>-0.07535700686050356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04509776053948569</v>
+      </c>
+      <c r="D82">
+        <v>0.03216345581663632</v>
+      </c>
+      <c r="E82">
+        <v>-0.01301922444447861</v>
+      </c>
+      <c r="F82">
+        <v>-0.05765397673147428</v>
+      </c>
+      <c r="G82">
+        <v>0.03699623307316782</v>
+      </c>
+      <c r="H82">
+        <v>-0.1906928625966743</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0770009487036961</v>
+        <v>-0.08283903205205931</v>
       </c>
       <c r="C83">
-        <v>-0.001213059649950875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01704812908150754</v>
+      </c>
+      <c r="D83">
+        <v>0.03814867100032423</v>
+      </c>
+      <c r="E83">
+        <v>0.01905426551064244</v>
+      </c>
+      <c r="F83">
+        <v>-0.05814476968995375</v>
+      </c>
+      <c r="G83">
+        <v>0.09579307818946904</v>
+      </c>
+      <c r="H83">
+        <v>0.06880374621609037</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02810486608252002</v>
+        <v>-0.04000783003758943</v>
       </c>
       <c r="C84">
-        <v>-0.02433898356574879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01916357742079304</v>
+      </c>
+      <c r="D84">
+        <v>0.03791496011812924</v>
+      </c>
+      <c r="E84">
+        <v>0.01972614581672073</v>
+      </c>
+      <c r="F84">
+        <v>0.05058906793399089</v>
+      </c>
+      <c r="G84">
+        <v>0.06319406262156869</v>
+      </c>
+      <c r="H84">
+        <v>-0.01952695939525519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1202244979739836</v>
+        <v>-0.1208083426233507</v>
       </c>
       <c r="C85">
-        <v>-0.06368182722880793</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03171059741886895</v>
+      </c>
+      <c r="D85">
+        <v>0.03074256747129398</v>
+      </c>
+      <c r="E85">
+        <v>0.01239260831526707</v>
+      </c>
+      <c r="F85">
+        <v>-0.04599514617445356</v>
+      </c>
+      <c r="G85">
+        <v>0.00745651629933708</v>
+      </c>
+      <c r="H85">
+        <v>-0.1553703116452795</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05007220281790353</v>
+        <v>-0.0556334106880907</v>
       </c>
       <c r="C86">
-        <v>-0.03031767026657912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01818672438385519</v>
+      </c>
+      <c r="D86">
+        <v>0.0255528630345479</v>
+      </c>
+      <c r="E86">
+        <v>0.04795426230050266</v>
+      </c>
+      <c r="F86">
+        <v>-0.02551917481221549</v>
+      </c>
+      <c r="G86">
+        <v>0.005084260648466074</v>
+      </c>
+      <c r="H86">
+        <v>-0.01560259475006976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1199485796377103</v>
+        <v>-0.1194244046286774</v>
       </c>
       <c r="C87">
-        <v>-0.07356207430659746</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03661951956697638</v>
+      </c>
+      <c r="D87">
+        <v>0.07384806021960647</v>
+      </c>
+      <c r="E87">
+        <v>0.01559742101194285</v>
+      </c>
+      <c r="F87">
+        <v>-0.003112947128378239</v>
+      </c>
+      <c r="G87">
+        <v>-0.1071087831180689</v>
+      </c>
+      <c r="H87">
+        <v>0.0109713394136725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05385189175148528</v>
+        <v>-0.05946094837463999</v>
       </c>
       <c r="C88">
-        <v>-0.03175461052839822</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01996767322232091</v>
+      </c>
+      <c r="D88">
+        <v>0.02665700446490446</v>
+      </c>
+      <c r="E88">
+        <v>0.01574351078379088</v>
+      </c>
+      <c r="F88">
+        <v>-0.004951095749403173</v>
+      </c>
+      <c r="G88">
+        <v>-0.01327078772382745</v>
+      </c>
+      <c r="H88">
+        <v>-0.05628101954367615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08456693539364972</v>
+        <v>-0.1020541263052256</v>
       </c>
       <c r="C89">
-        <v>-0.06522482698842556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07771200754509773</v>
+      </c>
+      <c r="D89">
+        <v>-0.3305591268145673</v>
+      </c>
+      <c r="E89">
+        <v>0.08529664686944043</v>
+      </c>
+      <c r="F89">
+        <v>-0.07628160870572462</v>
+      </c>
+      <c r="G89">
+        <v>0.01895299937054004</v>
+      </c>
+      <c r="H89">
+        <v>-0.002454022288877971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.072227760156025</v>
+        <v>-0.08425665325323956</v>
       </c>
       <c r="C90">
-        <v>-0.05777164568681162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06707559767160801</v>
+      </c>
+      <c r="D90">
+        <v>-0.3035270229121325</v>
+      </c>
+      <c r="E90">
+        <v>0.06599392200740474</v>
+      </c>
+      <c r="F90">
+        <v>-0.005859303041568456</v>
+      </c>
+      <c r="G90">
+        <v>0.002236996391442286</v>
+      </c>
+      <c r="H90">
+        <v>-0.01136023933071707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08313116891019676</v>
+        <v>-0.08829240948243373</v>
       </c>
       <c r="C91">
-        <v>-0.05585199061646554</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03326870033648805</v>
+      </c>
+      <c r="D91">
+        <v>0.0330252200784904</v>
+      </c>
+      <c r="E91">
+        <v>0.01456942165041445</v>
+      </c>
+      <c r="F91">
+        <v>-0.005923730646024647</v>
+      </c>
+      <c r="G91">
+        <v>0.04599001220261772</v>
+      </c>
+      <c r="H91">
+        <v>-0.07589546889314691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07926468281740276</v>
+        <v>-0.0922379486301835</v>
       </c>
       <c r="C92">
-        <v>-0.07713492155109064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08660689402058123</v>
+      </c>
+      <c r="D92">
+        <v>-0.3378181686305047</v>
+      </c>
+      <c r="E92">
+        <v>0.05925360386236307</v>
+      </c>
+      <c r="F92">
+        <v>-0.03426132256168832</v>
+      </c>
+      <c r="G92">
+        <v>-0.006226209281366556</v>
+      </c>
+      <c r="H92">
+        <v>-0.0140322710896993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06626752738535584</v>
+        <v>-0.08368466002198759</v>
       </c>
       <c r="C93">
-        <v>-0.06332074171945044</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07699412020053023</v>
+      </c>
+      <c r="D93">
+        <v>-0.3020473963994563</v>
+      </c>
+      <c r="E93">
+        <v>0.04266416876389726</v>
+      </c>
+      <c r="F93">
+        <v>-0.0460582316756963</v>
+      </c>
+      <c r="G93">
+        <v>-0.006944628109625419</v>
+      </c>
+      <c r="H93">
+        <v>0.003483217369299909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1309510077898906</v>
+        <v>-0.1272272478830475</v>
       </c>
       <c r="C94">
-        <v>-0.05990792464314222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02122995108810825</v>
+      </c>
+      <c r="D94">
+        <v>0.04875490931401437</v>
+      </c>
+      <c r="E94">
+        <v>-0.01747556602534064</v>
+      </c>
+      <c r="F94">
+        <v>-0.02267335884682791</v>
+      </c>
+      <c r="G94">
+        <v>0.03654614025121868</v>
+      </c>
+      <c r="H94">
+        <v>-0.1110580574213655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1187688557261058</v>
+        <v>-0.1262058976991338</v>
       </c>
       <c r="C95">
-        <v>-0.04029970498316043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.01036535190031673</v>
+      </c>
+      <c r="D95">
+        <v>0.05767702273210453</v>
+      </c>
+      <c r="E95">
+        <v>-0.0006125623574181403</v>
+      </c>
+      <c r="F95">
+        <v>-0.04001155404904343</v>
+      </c>
+      <c r="G95">
+        <v>0.01201906774777403</v>
+      </c>
+      <c r="H95">
+        <v>0.02581055988051078</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2059870095349249</v>
+        <v>-0.2158622270848549</v>
       </c>
       <c r="C97">
-        <v>-0.04855072423279515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01038359323473609</v>
+      </c>
+      <c r="D97">
+        <v>-0.0771331590914185</v>
+      </c>
+      <c r="E97">
+        <v>-0.2395649770186456</v>
+      </c>
+      <c r="F97">
+        <v>0.8850919360850356</v>
+      </c>
+      <c r="G97">
+        <v>-0.1222556172264629</v>
+      </c>
+      <c r="H97">
+        <v>0.02842126473571396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2467807029680255</v>
+        <v>-0.2743660582777579</v>
       </c>
       <c r="C98">
-        <v>-0.08686938182738706</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03944971470418409</v>
+      </c>
+      <c r="D98">
+        <v>0.06165909098331887</v>
+      </c>
+      <c r="E98">
+        <v>-0.1409328328782639</v>
+      </c>
+      <c r="F98">
+        <v>-0.06871106982183021</v>
+      </c>
+      <c r="G98">
+        <v>0.2857804584576592</v>
+      </c>
+      <c r="H98">
+        <v>0.2239378944864633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.471216074748052</v>
+        <v>-0.2921940139681209</v>
       </c>
       <c r="C99">
-        <v>0.8675477622036436</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9354062106330781</v>
+      </c>
+      <c r="D99">
+        <v>-0.1231608942402269</v>
+      </c>
+      <c r="E99">
+        <v>0.05471966277555276</v>
+      </c>
+      <c r="F99">
+        <v>-0.04471916033248453</v>
+      </c>
+      <c r="G99">
+        <v>0.009068544931490343</v>
+      </c>
+      <c r="H99">
+        <v>-0.05907606974218346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04048962258656558</v>
+        <v>-0.04696537499689574</v>
       </c>
       <c r="C101">
-        <v>-0.03074654775087804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.0240565130407826</v>
+      </c>
+      <c r="D101">
+        <v>0.00776536876687183</v>
+      </c>
+      <c r="E101">
+        <v>0.04693146506540688</v>
+      </c>
+      <c r="F101">
+        <v>-0.001330076275341316</v>
+      </c>
+      <c r="G101">
+        <v>-0.0009994167305283851</v>
+      </c>
+      <c r="H101">
+        <v>-0.08680874887655587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
